--- a/smartstore/blue_keyword.xlsx
+++ b/smartstore/blue_keyword.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\smartstore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\project\CMW_V2\smartstore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA1F660-49A1-4528-9B28-77B28B5D0605}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BECCAB-5729-4E9D-ADB7-163C4CDD8884}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="3210" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="롤화장지" sheetId="4" r:id="rId1"/>
@@ -650,7 +650,7 @@
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1254,26 +1254,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE536916-607E-46E6-8015-DFE829C821C4}">
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="24.75" customHeight="1">
       <c r="A1" s="68" t="s">
         <v>193</v>
       </c>
@@ -1295,7 +1295,7 @@
       <c r="Q1" s="68"/>
       <c r="R1" s="68"/>
     </row>
-    <row r="2" spans="1:18" s="45" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="45" customFormat="1" ht="36">
       <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="47" t="s">
         <v>121</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="47" t="s">
         <v>138</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="47" t="s">
         <v>132</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="47" t="s">
         <v>128</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="47" t="s">
         <v>127</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="47" t="s">
         <v>111</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="47" t="s">
         <v>110</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="47" t="s">
         <v>140</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="47" t="s">
         <v>114</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="47" t="s">
         <v>90</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="47" t="s">
         <v>115</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="47" t="s">
         <v>98</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="50" t="s">
         <v>107</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="65" t="s">
         <v>170</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="50" t="s">
         <v>141</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="50" t="s">
         <v>108</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="50" t="s">
         <v>161</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="50" t="s">
         <v>104</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="50" t="s">
         <v>131</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="50" t="s">
         <v>116</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="50" t="s">
         <v>112</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="50" t="s">
         <v>103</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" s="50" t="s">
         <v>150</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" s="50" t="s">
         <v>109</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" s="50" t="s">
         <v>49</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" s="56" t="s">
         <v>145</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" s="53" t="s">
         <v>171</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" s="56" t="s">
         <v>137</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" s="56" t="s">
         <v>136</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" s="56" t="s">
         <v>144</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" s="56" t="s">
         <v>83</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" s="56" t="s">
         <v>82</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" s="56" t="s">
         <v>47</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" s="56" t="s">
         <v>160</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" s="56" t="s">
         <v>106</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" s="56" t="s">
         <v>105</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" s="53" t="s">
         <v>169</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" s="53" t="s">
         <v>168</v>
       </c>
@@ -3475,7 +3475,7 @@
       <c r="Q40" s="54"/>
       <c r="R40" s="54"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" s="56" t="s">
         <v>100</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" s="53" t="s">
         <v>167</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43" s="56" t="s">
         <v>159</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44" s="56" t="s">
         <v>158</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45" s="53" t="s">
         <v>166</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46" s="56" t="s">
         <v>135</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47" s="53" t="s">
         <v>165</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48" s="56" t="s">
         <v>48</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49" s="56" t="s">
         <v>157</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50" s="53" t="s">
         <v>153</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51" s="56" t="s">
         <v>120</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52" s="56" t="s">
         <v>129</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53" s="53" t="s">
         <v>164</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54" s="59" t="s">
         <v>91</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="A55" s="59" t="s">
         <v>142</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56" s="59" t="s">
         <v>130</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57" s="59" t="s">
         <v>81</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58" s="59" t="s">
         <v>179</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59" s="59" t="s">
         <v>146</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="A60" s="59" t="s">
         <v>113</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61" s="62" t="s">
         <v>147</v>
       </c>
@@ -4672,23 +4672,23 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="23.25" customHeight="1">
       <c r="A1" s="68" t="s">
         <v>196</v>
       </c>
@@ -4710,7 +4710,7 @@
       <c r="Q1" s="68"/>
       <c r="R1" s="68"/>
     </row>
-    <row r="2" spans="1:18" s="45" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="45" customFormat="1" ht="36">
       <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="13" t="s">
         <v>53</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="13" t="s">
         <v>45</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="13" t="s">
         <v>73</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="13" t="s">
         <v>172</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="26" t="s">
         <v>76</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="26" t="s">
         <v>74</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="26" t="s">
         <v>75</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="26" t="s">
         <v>123</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="17" t="s">
         <v>44</v>
       </c>
@@ -5291,23 +5291,23 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="25.5" customHeight="1">
       <c r="A1" s="69" t="s">
         <v>194</v>
       </c>
@@ -5329,7 +5329,7 @@
       <c r="Q1" s="69"/>
       <c r="R1" s="69"/>
     </row>
-    <row r="2" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="36">
       <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="13" t="s">
         <v>65</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>3730</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="13" t="s">
         <v>61</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="13" t="s">
         <v>62</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="13" t="s">
         <v>57</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="13" t="s">
         <v>60</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="13" t="s">
         <v>58</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="10" t="s">
         <v>63</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="10" t="s">
         <v>64</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="10" t="s">
         <v>59</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="17" t="s">
         <v>181</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="20" t="s">
         <v>185</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="20" t="s">
         <v>180</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="20" t="s">
         <v>187</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="20" t="s">
         <v>182</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="20" t="s">
         <v>183</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="20" t="s">
         <v>148</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="20" t="s">
         <v>184</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="20" t="s">
         <v>186</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="20" t="s">
         <v>56</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="20" t="s">
         <v>190</v>
       </c>
@@ -6526,21 +6526,21 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="27.75" customHeight="1">
       <c r="A1" s="68" t="s">
         <v>195</v>
       </c>
@@ -6562,7 +6562,7 @@
       <c r="Q1" s="68"/>
       <c r="R1" s="68"/>
     </row>
-    <row r="2" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="36">
       <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="16" t="s">
         <v>29</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1">
       <c r="A6" s="30" t="s">
         <v>29</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="34" t="s">
         <v>27</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="34" t="s">
         <v>30</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="34" t="s">
         <v>34</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="17" t="s">
         <v>155</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="17" t="s">
         <v>101</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="17" t="s">
         <v>37</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="32" t="s">
         <v>163</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="20" t="s">
         <v>38</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="36" t="s">
         <v>33</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="36" t="s">
         <v>35</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="20" t="s">
         <v>36</v>
       </c>
@@ -7535,20 +7535,20 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="8" width="15.6640625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="56.28515625" customWidth="1"/>
-    <col min="15" max="16" width="8.7109375" customWidth="1"/>
-    <col min="17" max="18" width="13.85546875" customWidth="1"/>
+    <col min="10" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="56.33203125" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" customWidth="1"/>
+    <col min="17" max="18" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="45.6" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.15" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>67</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>7240</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="7" t="s">
         <v>143</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
         <v>68</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>5620</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="7" t="s">
         <v>99</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>6210</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
         <v>84</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="7" t="s">
         <v>188</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
         <v>87</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="7" t="s">
         <v>86</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
         <v>117</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="7" t="s">
         <v>85</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
         <v>154</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="7" t="s">
         <v>162</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
         <v>134</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="7" t="s">
         <v>191</v>
       </c>
@@ -8407,20 +8407,20 @@
       <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="72">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
         <v>149</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="7" t="s">
         <v>97</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>7840</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
         <v>126</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="7" t="s">
         <v>125</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
         <v>174</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="7" t="s">
         <v>173</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
         <v>139</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="7" t="s">
         <v>93</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
         <v>96</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>3620</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="7" t="s">
         <v>94</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>4120</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
         <v>80</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="7" t="s">
         <v>156</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
         <v>95</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="7" t="s">
         <v>79</v>
       </c>
@@ -9274,20 +9274,20 @@
       <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="72">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
         <v>92</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="7" t="s">
         <v>152</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
         <v>153</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="7" t="s">
         <v>78</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
         <v>102</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="7" t="s">
         <v>124</v>
       </c>
@@ -9693,20 +9693,20 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="72">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="7" t="s">
         <v>189</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
         <v>178</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="7" t="s">
         <v>42</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
         <v>71</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
         <v>41</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="7" t="s">
         <v>122</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
         <v>177</v>
       </c>
@@ -10280,20 +10280,20 @@
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="72">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
         <v>176</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="7" t="s">
         <v>175</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
         <v>69</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="7" t="s">
         <v>52</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
         <v>119</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
         <v>118</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
         <v>70</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="7" t="s">
         <v>89</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
         <v>151</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="7" t="s">
         <v>51</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
         <v>88</v>
       </c>

--- a/smartstore/blue_keyword.xlsx
+++ b/smartstore/blue_keyword.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\project\CMW_V2\smartstore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\smartstore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BECCAB-5729-4E9D-ADB7-163C4CDD8884}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FEC4AC-F80F-49C7-A409-80C1978359E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="915" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="롤화장지" sheetId="4" r:id="rId1"/>
@@ -650,7 +650,7 @@
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1254,26 +1254,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE536916-607E-46E6-8015-DFE829C821C4}">
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24.75" customHeight="1">
+    <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>193</v>
       </c>
@@ -1295,7 +1295,7 @@
       <c r="Q1" s="68"/>
       <c r="R1" s="68"/>
     </row>
-    <row r="2" spans="1:18" s="45" customFormat="1" ht="36">
+    <row r="2" spans="1:18" s="45" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>121</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>138</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>132</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>128</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>127</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>111</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>110</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>140</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>114</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
         <v>90</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>115</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>98</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>107</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="65" t="s">
         <v>170</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
         <v>141</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
         <v>108</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
         <v>161</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
         <v>104</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
         <v>131</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
         <v>116</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
         <v>112</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
         <v>103</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
         <v>150</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
         <v>109</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
         <v>49</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="56" t="s">
         <v>145</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>171</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="56" t="s">
         <v>137</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="56" t="s">
         <v>136</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>144</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="s">
         <v>83</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="56" t="s">
         <v>82</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="56" t="s">
         <v>47</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="56" t="s">
         <v>160</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="56" t="s">
         <v>106</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="56" t="s">
         <v>105</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>169</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="53" t="s">
         <v>168</v>
       </c>
@@ -3475,7 +3475,7 @@
       <c r="Q40" s="54"/>
       <c r="R40" s="54"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="56" t="s">
         <v>100</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
         <v>167</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="56" t="s">
         <v>159</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="56" t="s">
         <v>158</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="53" t="s">
         <v>166</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="56" t="s">
         <v>135</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="53" t="s">
         <v>165</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="56" t="s">
         <v>48</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="56" t="s">
         <v>157</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
         <v>153</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="56" t="s">
         <v>120</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="56" t="s">
         <v>129</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="53" t="s">
         <v>164</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="59" t="s">
         <v>91</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="59" t="s">
         <v>142</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="59" t="s">
         <v>130</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="59" t="s">
         <v>81</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="59" t="s">
         <v>179</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="59" t="s">
         <v>146</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="59" t="s">
         <v>113</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="62" t="s">
         <v>147</v>
       </c>
@@ -4668,27 +4668,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723B8AA2-A1C0-4C99-8441-19FC461CBE7F}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="41.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="23.25" customHeight="1">
+    <row r="1" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>196</v>
       </c>
@@ -4710,7 +4710,7 @@
       <c r="Q1" s="68"/>
       <c r="R1" s="68"/>
     </row>
-    <row r="2" spans="1:18" s="45" customFormat="1" ht="36">
+    <row r="2" spans="1:18" s="45" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>53</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>45</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>73</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>172</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>76</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>74</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>75</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>123</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>44</v>
       </c>
@@ -5291,23 +5291,23 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.5" customHeight="1">
+    <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>194</v>
       </c>
@@ -5329,7 +5329,7 @@
       <c r="Q1" s="69"/>
       <c r="R1" s="69"/>
     </row>
-    <row r="2" spans="1:18" ht="36">
+    <row r="2" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>65</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>3730</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>61</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>62</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>57</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>60</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>58</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>63</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>64</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>59</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>181</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>185</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>180</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>187</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>182</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>183</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>148</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>184</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>186</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>56</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>190</v>
       </c>
@@ -6526,21 +6526,21 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="46.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27.75" customHeight="1">
+    <row r="1" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>195</v>
       </c>
@@ -6562,7 +6562,7 @@
       <c r="Q1" s="68"/>
       <c r="R1" s="68"/>
     </row>
-    <row r="2" spans="1:18" ht="36">
+    <row r="2" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>29</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>29</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>27</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>30</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>34</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>155</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>101</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>37</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>163</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>38</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>33</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>35</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>36</v>
       </c>
@@ -7535,20 +7535,20 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="8" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" customWidth="1"/>
-    <col min="14" max="14" width="56.33203125" customWidth="1"/>
-    <col min="15" max="16" width="8.6640625" customWidth="1"/>
-    <col min="17" max="18" width="13.88671875" customWidth="1"/>
+    <col min="10" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="56.28515625" customWidth="1"/>
+    <col min="15" max="16" width="8.7109375" customWidth="1"/>
+    <col min="17" max="18" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="45.6" customHeight="1">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.15" customHeight="1">
+    <row r="2" spans="1:18" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>67</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>7240</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>143</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>68</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>5620</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>99</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>6210</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>84</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>188</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>87</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>86</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>117</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>85</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>154</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>162</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>134</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>191</v>
       </c>
@@ -8407,20 +8407,20 @@
       <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="72">
+    <row r="1" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>149</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>97</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>7840</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>126</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>125</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>174</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>173</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>139</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>93</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>96</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>3620</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>94</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>4120</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>80</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>156</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>95</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>79</v>
       </c>
@@ -9274,20 +9274,20 @@
       <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="72">
+    <row r="1" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>92</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>152</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>153</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>78</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>102</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>124</v>
       </c>
@@ -9693,20 +9693,20 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="72">
+    <row r="1" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>189</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>178</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>42</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>71</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>41</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>122</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>177</v>
       </c>
@@ -10280,20 +10280,20 @@
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="72">
+    <row r="1" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>176</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>175</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>69</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>52</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>119</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>118</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>70</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>89</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>151</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>51</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>88</v>
       </c>

--- a/smartstore/blue_keyword.xlsx
+++ b/smartstore/blue_keyword.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\smartstore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FEC4AC-F80F-49C7-A409-80C1978359E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4FB5F8-348E-4B87-90B4-74571DDEB8AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="915" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="롤화장지" sheetId="4" r:id="rId1"/>
-    <sheet name="점보롤" sheetId="7" r:id="rId2"/>
-    <sheet name="냅킨" sheetId="3" r:id="rId3"/>
-    <sheet name="페이퍼타월" sheetId="9" r:id="rId4"/>
-    <sheet name="갑티슈" sheetId="2" r:id="rId5"/>
-    <sheet name="물티슈" sheetId="5" r:id="rId6"/>
-    <sheet name="여행티슈" sheetId="6" r:id="rId7"/>
-    <sheet name="키친타월" sheetId="8" r:id="rId8"/>
-    <sheet name="화장지케이스" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
+    <sheet name="점보롤" sheetId="7" r:id="rId3"/>
+    <sheet name="냅킨" sheetId="3" r:id="rId4"/>
+    <sheet name="페이퍼타월" sheetId="9" r:id="rId5"/>
+    <sheet name="갑티슈" sheetId="2" r:id="rId6"/>
+    <sheet name="물티슈" sheetId="5" r:id="rId7"/>
+    <sheet name="여행티슈" sheetId="6" r:id="rId8"/>
+    <sheet name="키친타월" sheetId="8" r:id="rId9"/>
+    <sheet name="화장지케이스" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="197">
   <si>
     <t>키워드</t>
   </si>
@@ -1254,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE536916-607E-46E6-8015-DFE829C821C4}">
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S19" sqref="S19:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4664,12 +4665,1413 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1481E019-76EC-457D-8030-E948CEC60273}">
+  <dimension ref="A1:R16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="7">
+        <v>370</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1900</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2270</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="F2" s="7">
+        <v>19.8</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15</v>
+      </c>
+      <c r="K2" s="7">
+        <v>123990</v>
+      </c>
+      <c r="L2" s="7">
+        <v>54.62</v>
+      </c>
+      <c r="M2" s="7">
+        <v>17689</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>1240</v>
+      </c>
+      <c r="R2" s="7">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="7">
+        <v>170</v>
+      </c>
+      <c r="C3" s="7">
+        <v>650</v>
+      </c>
+      <c r="D3" s="7">
+        <v>820</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="7">
+        <v>18.3</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2.99</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="7">
+        <v>15</v>
+      </c>
+      <c r="K3" s="7">
+        <v>16778</v>
+      </c>
+      <c r="L3" s="7">
+        <v>20.46</v>
+      </c>
+      <c r="M3" s="7">
+        <v>4315</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>830</v>
+      </c>
+      <c r="R3" s="7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="7">
+        <v>160</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1240</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1400</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="F4" s="7">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1.23</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="7">
+        <v>15</v>
+      </c>
+      <c r="K4" s="7">
+        <v>84505</v>
+      </c>
+      <c r="L4" s="7">
+        <v>60.36</v>
+      </c>
+      <c r="M4" s="7">
+        <v>5428</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>2470</v>
+      </c>
+      <c r="R4" s="7">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="7">
+        <v>360</v>
+      </c>
+      <c r="C5" s="7">
+        <v>820</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1180</v>
+      </c>
+      <c r="E5" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>30.3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1.82</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3.84</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7">
+        <v>15</v>
+      </c>
+      <c r="K5" s="7">
+        <v>21911</v>
+      </c>
+      <c r="L5" s="7">
+        <v>18.57</v>
+      </c>
+      <c r="M5" s="7">
+        <v>857</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>3190</v>
+      </c>
+      <c r="R5" s="7">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="7">
+        <v>650</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1570</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2220</v>
+      </c>
+      <c r="E6" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>37.5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1.18</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2.56</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="7">
+        <v>15</v>
+      </c>
+      <c r="K6" s="7">
+        <v>30596</v>
+      </c>
+      <c r="L6" s="7">
+        <v>13.78</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2926</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>2750</v>
+      </c>
+      <c r="R6" s="7">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7">
+        <v>200</v>
+      </c>
+      <c r="C7" s="7">
+        <v>630</v>
+      </c>
+      <c r="D7" s="7">
+        <v>830</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="F7" s="7">
+        <v>26</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1.88</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="7">
+        <v>15</v>
+      </c>
+      <c r="K7" s="7">
+        <v>29943</v>
+      </c>
+      <c r="L7" s="7">
+        <v>36.08</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1588</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>2310</v>
+      </c>
+      <c r="R7" s="7">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1780</v>
+      </c>
+      <c r="C8" s="7">
+        <v>12300</v>
+      </c>
+      <c r="D8" s="7">
+        <v>14080</v>
+      </c>
+      <c r="E8" s="7">
+        <v>14.7</v>
+      </c>
+      <c r="F8" s="7">
+        <v>146.5</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="7">
+        <v>15</v>
+      </c>
+      <c r="K8" s="7">
+        <v>494879</v>
+      </c>
+      <c r="L8" s="7">
+        <v>35.15</v>
+      </c>
+      <c r="M8" s="7">
+        <v>96586</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>830</v>
+      </c>
+      <c r="R8" s="7">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>340</v>
+      </c>
+      <c r="C9">
+        <v>740</v>
+      </c>
+      <c r="D9">
+        <v>1080</v>
+      </c>
+      <c r="E9">
+        <v>3.1</v>
+      </c>
+      <c r="F9">
+        <v>11.2</v>
+      </c>
+      <c r="G9">
+        <v>0.93</v>
+      </c>
+      <c r="H9">
+        <v>1.66</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>25480</v>
+      </c>
+      <c r="L9">
+        <v>23.59</v>
+      </c>
+      <c r="M9">
+        <v>1907</v>
+      </c>
+      <c r="N9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>2420</v>
+      </c>
+      <c r="R9">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>1260</v>
+      </c>
+      <c r="C10">
+        <v>3180</v>
+      </c>
+      <c r="D10">
+        <v>4440</v>
+      </c>
+      <c r="E10">
+        <v>7.1</v>
+      </c>
+      <c r="F10">
+        <v>60.7</v>
+      </c>
+      <c r="G10">
+        <v>0.6</v>
+      </c>
+      <c r="H10">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>35092</v>
+      </c>
+      <c r="L10">
+        <v>7.9</v>
+      </c>
+      <c r="M10">
+        <v>1243</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>3300</v>
+      </c>
+      <c r="R10">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>1230</v>
+      </c>
+      <c r="C11">
+        <v>3670</v>
+      </c>
+      <c r="D11">
+        <v>4900</v>
+      </c>
+      <c r="E11">
+        <v>10.9</v>
+      </c>
+      <c r="F11">
+        <v>75</v>
+      </c>
+      <c r="G11">
+        <v>0.93</v>
+      </c>
+      <c r="H11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>38261</v>
+      </c>
+      <c r="L11">
+        <v>7.81</v>
+      </c>
+      <c r="M11">
+        <v>7273</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>2890</v>
+      </c>
+      <c r="R11">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="7">
+        <v>550</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1660</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2210</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="F12" s="7">
+        <v>29.3</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1.91</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="7">
+        <v>15</v>
+      </c>
+      <c r="K12" s="7">
+        <v>220772</v>
+      </c>
+      <c r="L12" s="7">
+        <v>99.9</v>
+      </c>
+      <c r="M12" s="7">
+        <v>333683</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>2500</v>
+      </c>
+      <c r="R12" s="7">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="7">
+        <v>170</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1140</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1310</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>16.8</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="7">
+        <v>15</v>
+      </c>
+      <c r="K13" s="7">
+        <v>813375</v>
+      </c>
+      <c r="L13" s="7">
+        <v>620.9</v>
+      </c>
+      <c r="M13" s="7">
+        <v>13203</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>880</v>
+      </c>
+      <c r="R13" s="7">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="7">
+        <v>340</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1230</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1570</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="7">
+        <v>15</v>
+      </c>
+      <c r="K14" s="7">
+        <v>30007</v>
+      </c>
+      <c r="L14" s="7">
+        <v>19.11</v>
+      </c>
+      <c r="M14" s="7">
+        <v>5220</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>2050</v>
+      </c>
+      <c r="R14" s="7">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="7">
+        <v>200</v>
+      </c>
+      <c r="C15" s="7">
+        <v>450</v>
+      </c>
+      <c r="D15" s="7">
+        <v>650</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F15" s="7">
+        <v>3</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="7">
+        <v>15</v>
+      </c>
+      <c r="K15" s="7">
+        <v>103518</v>
+      </c>
+      <c r="L15" s="7">
+        <v>159.26</v>
+      </c>
+      <c r="M15" s="7">
+        <v>2743</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>630</v>
+      </c>
+      <c r="R15" s="7">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1810</v>
+      </c>
+      <c r="C16" s="7">
+        <v>12700</v>
+      </c>
+      <c r="D16" s="7">
+        <v>14510</v>
+      </c>
+      <c r="E16" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="F16" s="7">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="7">
+        <v>15</v>
+      </c>
+      <c r="K16" s="7">
+        <v>813375</v>
+      </c>
+      <c r="L16" s="7">
+        <v>56.06</v>
+      </c>
+      <c r="M16" s="7">
+        <v>88824</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>1270</v>
+      </c>
+      <c r="R16" s="7">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61A592B-1392-4E24-A57B-AB9B20DB6C13}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="48">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="48">
+        <v>10100</v>
+      </c>
+      <c r="D1" s="48">
+        <v>12100</v>
+      </c>
+      <c r="E1" s="47">
+        <v>6.3</v>
+      </c>
+      <c r="F1" s="47">
+        <v>112.8</v>
+      </c>
+      <c r="G1" s="47">
+        <v>0.34</v>
+      </c>
+      <c r="H1" s="47">
+        <v>1.19</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="48">
+        <v>15</v>
+      </c>
+      <c r="K1" s="48">
+        <v>2309</v>
+      </c>
+      <c r="L1" s="47">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="48">
+        <v>130</v>
+      </c>
+      <c r="C2" s="48">
+        <v>1550</v>
+      </c>
+      <c r="D2" s="48">
+        <v>1680</v>
+      </c>
+      <c r="E2" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="47">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G2" s="47">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H2" s="47">
+        <v>2.31</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="48">
+        <v>15</v>
+      </c>
+      <c r="K2" s="48">
+        <v>1172</v>
+      </c>
+      <c r="L2" s="47">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="48">
+        <v>330</v>
+      </c>
+      <c r="C3" s="48">
+        <v>2380</v>
+      </c>
+      <c r="D3" s="48">
+        <v>2710</v>
+      </c>
+      <c r="E3" s="47">
+        <v>1.9</v>
+      </c>
+      <c r="F3" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="G3" s="47">
+        <v>0.61</v>
+      </c>
+      <c r="H3" s="47">
+        <v>0.04</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="48">
+        <v>13</v>
+      </c>
+      <c r="K3" s="48">
+        <v>2974</v>
+      </c>
+      <c r="L3" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="48">
+        <v>360</v>
+      </c>
+      <c r="C4" s="48">
+        <v>2610</v>
+      </c>
+      <c r="D4" s="48">
+        <v>2970</v>
+      </c>
+      <c r="E4" s="47">
+        <v>2.1</v>
+      </c>
+      <c r="F4" s="47">
+        <v>41</v>
+      </c>
+      <c r="G4" s="47">
+        <v>0.59</v>
+      </c>
+      <c r="H4" s="47">
+        <v>1.69</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="48">
+        <v>13</v>
+      </c>
+      <c r="K4" s="48">
+        <v>4406</v>
+      </c>
+      <c r="L4" s="47">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="48">
+        <v>80</v>
+      </c>
+      <c r="C5" s="48">
+        <v>530</v>
+      </c>
+      <c r="D5" s="48">
+        <v>610</v>
+      </c>
+      <c r="E5" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="F5" s="47">
+        <v>14.3</v>
+      </c>
+      <c r="G5" s="47">
+        <v>0.84</v>
+      </c>
+      <c r="H5" s="47">
+        <v>2.94</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="48">
+        <v>14</v>
+      </c>
+      <c r="K5" s="48">
+        <v>1171</v>
+      </c>
+      <c r="L5" s="47">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="48">
+        <v>7520</v>
+      </c>
+      <c r="C6" s="48">
+        <v>46500</v>
+      </c>
+      <c r="D6" s="48">
+        <v>54020</v>
+      </c>
+      <c r="E6" s="47">
+        <v>18</v>
+      </c>
+      <c r="F6" s="47">
+        <v>488.7</v>
+      </c>
+      <c r="G6" s="47">
+        <v>0.26</v>
+      </c>
+      <c r="H6" s="47">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="48">
+        <v>15</v>
+      </c>
+      <c r="K6" s="48">
+        <v>111453</v>
+      </c>
+      <c r="L6" s="47">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="48">
+        <v>150</v>
+      </c>
+      <c r="C7" s="48">
+        <v>1090</v>
+      </c>
+      <c r="D7" s="48">
+        <v>1240</v>
+      </c>
+      <c r="E7" s="47">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="47">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G7" s="47">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="47">
+        <v>0.22</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="48">
+        <v>15</v>
+      </c>
+      <c r="K7" s="48">
+        <v>4097</v>
+      </c>
+      <c r="L7" s="47">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="48">
+        <v>320</v>
+      </c>
+      <c r="C8" s="48">
+        <v>930</v>
+      </c>
+      <c r="D8" s="48">
+        <v>1250</v>
+      </c>
+      <c r="E8" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="47">
+        <v>2</v>
+      </c>
+      <c r="G8" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="47">
+        <v>0.23</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="48">
+        <v>15</v>
+      </c>
+      <c r="K8" s="48">
+        <v>5990</v>
+      </c>
+      <c r="L8" s="47">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="48">
+        <v>1730</v>
+      </c>
+      <c r="C9" s="48">
+        <v>14800</v>
+      </c>
+      <c r="D9" s="48">
+        <v>16530</v>
+      </c>
+      <c r="E9" s="47">
+        <v>10.1</v>
+      </c>
+      <c r="F9" s="47">
+        <v>234</v>
+      </c>
+      <c r="G9" s="47">
+        <v>0.62</v>
+      </c>
+      <c r="H9" s="47">
+        <v>1.69</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="48">
+        <v>15</v>
+      </c>
+      <c r="K9" s="48">
+        <v>124021</v>
+      </c>
+      <c r="L9" s="47">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="48">
+        <v>1140</v>
+      </c>
+      <c r="C10" s="48">
+        <v>2460</v>
+      </c>
+      <c r="D10" s="48">
+        <v>3600</v>
+      </c>
+      <c r="E10" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="H10" s="47">
+        <v>0.02</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="48">
+        <v>15</v>
+      </c>
+      <c r="K10" s="48">
+        <v>137656</v>
+      </c>
+      <c r="L10" s="47">
+        <v>38.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="48">
+        <v>480</v>
+      </c>
+      <c r="C11" s="48">
+        <v>1460</v>
+      </c>
+      <c r="D11" s="48">
+        <v>1940</v>
+      </c>
+      <c r="E11" s="47">
+        <v>1.4</v>
+      </c>
+      <c r="F11" s="47">
+        <v>25.3</v>
+      </c>
+      <c r="G11" s="47">
+        <v>0.33</v>
+      </c>
+      <c r="H11" s="47">
+        <v>1.88</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="48">
+        <v>15</v>
+      </c>
+      <c r="K11" s="48">
+        <v>111497</v>
+      </c>
+      <c r="L11" s="47">
+        <v>57.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="48">
+        <v>130</v>
+      </c>
+      <c r="C12" s="48">
+        <v>510</v>
+      </c>
+      <c r="D12" s="48">
+        <v>640</v>
+      </c>
+      <c r="E12" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="47">
+        <v>0</v>
+      </c>
+      <c r="G12" s="47">
+        <v>0.16</v>
+      </c>
+      <c r="H12" s="47">
+        <v>0</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="48">
+        <v>15</v>
+      </c>
+      <c r="K12" s="48">
+        <v>124021</v>
+      </c>
+      <c r="L12" s="47">
+        <v>193.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:L12">
+    <sortCondition ref="L1:L12"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723B8AA2-A1C0-4C99-8441-19FC461CBE7F}">
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5283,7 +6685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDE5E8A-4D98-4862-99F9-69D7CC9C5DC3}">
   <dimension ref="A1:R22"/>
   <sheetViews>
@@ -6518,7 +7920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A541197-3C61-4CF7-BCEF-F8EA3DDC0100}">
   <dimension ref="A1:R18"/>
   <sheetViews>
@@ -7527,7 +8929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R15"/>
   <sheetViews>
@@ -8399,7 +9801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89596011-B922-442E-B7EC-601A367C86E4}">
   <dimension ref="A1:R15"/>
   <sheetViews>
@@ -9266,7 +10668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FD10AE-564C-49F3-B940-FF258E822200}">
   <dimension ref="A1:R7"/>
   <sheetViews>
@@ -9685,7 +11087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA81D3F-7AFD-488B-964D-7CCED9BBF96E}">
   <dimension ref="A1:R10"/>
   <sheetViews>
@@ -10270,927 +11672,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1481E019-76EC-457D-8030-E948CEC60273}">
-  <dimension ref="A1:R16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="7">
-        <v>370</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1900</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2270</v>
-      </c>
-      <c r="E2" s="7">
-        <v>3.8</v>
-      </c>
-      <c r="F2" s="7">
-        <v>19.8</v>
-      </c>
-      <c r="G2" s="7">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="H2" s="7">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="7">
-        <v>15</v>
-      </c>
-      <c r="K2" s="7">
-        <v>123990</v>
-      </c>
-      <c r="L2" s="7">
-        <v>54.62</v>
-      </c>
-      <c r="M2" s="7">
-        <v>17689</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>1240</v>
-      </c>
-      <c r="R2" s="7">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="7">
-        <v>170</v>
-      </c>
-      <c r="C3" s="7">
-        <v>650</v>
-      </c>
-      <c r="D3" s="7">
-        <v>820</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F3" s="7">
-        <v>18.3</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="H3" s="7">
-        <v>2.99</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="7">
-        <v>15</v>
-      </c>
-      <c r="K3" s="7">
-        <v>16778</v>
-      </c>
-      <c r="L3" s="7">
-        <v>20.46</v>
-      </c>
-      <c r="M3" s="7">
-        <v>4315</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>830</v>
-      </c>
-      <c r="R3" s="7">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="7">
-        <v>160</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1240</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1400</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1.7</v>
-      </c>
-      <c r="F4" s="7">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1.08</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1.23</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="7">
-        <v>15</v>
-      </c>
-      <c r="K4" s="7">
-        <v>84505</v>
-      </c>
-      <c r="L4" s="7">
-        <v>60.36</v>
-      </c>
-      <c r="M4" s="7">
-        <v>5428</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>2470</v>
-      </c>
-      <c r="R4" s="7">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="7">
-        <v>360</v>
-      </c>
-      <c r="C5" s="7">
-        <v>820</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1180</v>
-      </c>
-      <c r="E5" s="7">
-        <v>6.1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>30.3</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1.82</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3.84</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="7">
-        <v>15</v>
-      </c>
-      <c r="K5" s="7">
-        <v>21911</v>
-      </c>
-      <c r="L5" s="7">
-        <v>18.57</v>
-      </c>
-      <c r="M5" s="7">
-        <v>857</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>3190</v>
-      </c>
-      <c r="R5" s="7">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="7">
-        <v>650</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1570</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2220</v>
-      </c>
-      <c r="E6" s="7">
-        <v>7.2</v>
-      </c>
-      <c r="F6" s="7">
-        <v>37.5</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1.18</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2.56</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="7">
-        <v>15</v>
-      </c>
-      <c r="K6" s="7">
-        <v>30596</v>
-      </c>
-      <c r="L6" s="7">
-        <v>13.78</v>
-      </c>
-      <c r="M6" s="7">
-        <v>2926</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>2750</v>
-      </c>
-      <c r="R6" s="7">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="7">
-        <v>200</v>
-      </c>
-      <c r="C7" s="7">
-        <v>630</v>
-      </c>
-      <c r="D7" s="7">
-        <v>830</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3.7</v>
-      </c>
-      <c r="F7" s="7">
-        <v>26</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1.88</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="7">
-        <v>15</v>
-      </c>
-      <c r="K7" s="7">
-        <v>29943</v>
-      </c>
-      <c r="L7" s="7">
-        <v>36.08</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1588</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>2310</v>
-      </c>
-      <c r="R7" s="7">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1780</v>
-      </c>
-      <c r="C8" s="7">
-        <v>12300</v>
-      </c>
-      <c r="D8" s="7">
-        <v>14080</v>
-      </c>
-      <c r="E8" s="7">
-        <v>14.7</v>
-      </c>
-      <c r="F8" s="7">
-        <v>146.5</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="7">
-        <v>15</v>
-      </c>
-      <c r="K8" s="7">
-        <v>494879</v>
-      </c>
-      <c r="L8" s="7">
-        <v>35.15</v>
-      </c>
-      <c r="M8" s="7">
-        <v>96586</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>830</v>
-      </c>
-      <c r="R8" s="7">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>340</v>
-      </c>
-      <c r="C9">
-        <v>740</v>
-      </c>
-      <c r="D9">
-        <v>1080</v>
-      </c>
-      <c r="E9">
-        <v>3.1</v>
-      </c>
-      <c r="F9">
-        <v>11.2</v>
-      </c>
-      <c r="G9">
-        <v>0.93</v>
-      </c>
-      <c r="H9">
-        <v>1.66</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9">
-        <v>15</v>
-      </c>
-      <c r="K9">
-        <v>25480</v>
-      </c>
-      <c r="L9">
-        <v>23.59</v>
-      </c>
-      <c r="M9">
-        <v>1907</v>
-      </c>
-      <c r="N9" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>2420</v>
-      </c>
-      <c r="R9">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10">
-        <v>1260</v>
-      </c>
-      <c r="C10">
-        <v>3180</v>
-      </c>
-      <c r="D10">
-        <v>4440</v>
-      </c>
-      <c r="E10">
-        <v>7.1</v>
-      </c>
-      <c r="F10">
-        <v>60.7</v>
-      </c>
-      <c r="G10">
-        <v>0.6</v>
-      </c>
-      <c r="H10">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10">
-        <v>15</v>
-      </c>
-      <c r="K10">
-        <v>35092</v>
-      </c>
-      <c r="L10">
-        <v>7.9</v>
-      </c>
-      <c r="M10">
-        <v>1243</v>
-      </c>
-      <c r="N10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>3300</v>
-      </c>
-      <c r="R10">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>1230</v>
-      </c>
-      <c r="C11">
-        <v>3670</v>
-      </c>
-      <c r="D11">
-        <v>4900</v>
-      </c>
-      <c r="E11">
-        <v>10.9</v>
-      </c>
-      <c r="F11">
-        <v>75</v>
-      </c>
-      <c r="G11">
-        <v>0.93</v>
-      </c>
-      <c r="H11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11">
-        <v>15</v>
-      </c>
-      <c r="K11">
-        <v>38261</v>
-      </c>
-      <c r="L11">
-        <v>7.81</v>
-      </c>
-      <c r="M11">
-        <v>7273</v>
-      </c>
-      <c r="N11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>2890</v>
-      </c>
-      <c r="R11">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="7">
-        <v>550</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1660</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2210</v>
-      </c>
-      <c r="E12" s="7">
-        <v>3.4</v>
-      </c>
-      <c r="F12" s="7">
-        <v>29.3</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0.64</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1.91</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="7">
-        <v>15</v>
-      </c>
-      <c r="K12" s="7">
-        <v>220772</v>
-      </c>
-      <c r="L12" s="7">
-        <v>99.9</v>
-      </c>
-      <c r="M12" s="7">
-        <v>333683</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>2500</v>
-      </c>
-      <c r="R12" s="7">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="7">
-        <v>170</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1140</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1310</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7">
-        <v>16.8</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0.62</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="7">
-        <v>15</v>
-      </c>
-      <c r="K13" s="7">
-        <v>813375</v>
-      </c>
-      <c r="L13" s="7">
-        <v>620.9</v>
-      </c>
-      <c r="M13" s="7">
-        <v>13203</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P13" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>880</v>
-      </c>
-      <c r="R13" s="7">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="7">
-        <v>340</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1230</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1570</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="7">
-        <v>15</v>
-      </c>
-      <c r="K14" s="7">
-        <v>30007</v>
-      </c>
-      <c r="L14" s="7">
-        <v>19.11</v>
-      </c>
-      <c r="M14" s="7">
-        <v>5220</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>2050</v>
-      </c>
-      <c r="R14" s="7">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="7">
-        <v>200</v>
-      </c>
-      <c r="C15" s="7">
-        <v>450</v>
-      </c>
-      <c r="D15" s="7">
-        <v>650</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F15" s="7">
-        <v>3</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0.22</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="7">
-        <v>15</v>
-      </c>
-      <c r="K15" s="7">
-        <v>103518</v>
-      </c>
-      <c r="L15" s="7">
-        <v>159.26</v>
-      </c>
-      <c r="M15" s="7">
-        <v>2743</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>630</v>
-      </c>
-      <c r="R15" s="7">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1810</v>
-      </c>
-      <c r="C16" s="7">
-        <v>12700</v>
-      </c>
-      <c r="D16" s="7">
-        <v>14510</v>
-      </c>
-      <c r="E16" s="7">
-        <v>11.5</v>
-      </c>
-      <c r="F16" s="7">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0.68</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="7">
-        <v>15</v>
-      </c>
-      <c r="K16" s="7">
-        <v>813375</v>
-      </c>
-      <c r="L16" s="7">
-        <v>56.06</v>
-      </c>
-      <c r="M16" s="7">
-        <v>88824</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P16" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>1270</v>
-      </c>
-      <c r="R16" s="7">
-        <v>500</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/smartstore/blue_keyword.xlsx
+++ b/smartstore/blue_keyword.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\smartstore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4FB5F8-348E-4B87-90B4-74571DDEB8AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5797D6E2-36B3-474F-969A-CFFFF15767AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="롤화장지" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="196">
   <si>
     <t>키워드</t>
   </si>
@@ -486,9 +486,6 @@
   </si>
   <si>
     <t>화장지30롤</t>
-  </si>
-  <si>
-    <t>제지공장</t>
   </si>
   <si>
     <t>냅킨꽂이</t>
@@ -910,14 +907,14 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="177" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1253,30 +1250,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE536916-607E-46E6-8015-DFE829C821C4}">
-  <dimension ref="A1:R61"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S19" sqref="S19:T19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" style="9" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
     <col min="10" max="11" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -2081,58 +2083,58 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="66">
+      <c r="A16" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="63">
         <v>200</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="63">
         <v>1040</v>
       </c>
-      <c r="D16" s="66">
+      <c r="D16" s="63">
         <v>1240</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="62">
         <v>0.1</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="62">
         <v>0.5</v>
       </c>
-      <c r="G16" s="65">
+      <c r="G16" s="62">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="62">
         <v>0.06</v>
       </c>
-      <c r="I16" s="67" t="s">
+      <c r="I16" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="66">
-        <v>15</v>
-      </c>
-      <c r="K16" s="66">
+      <c r="J16" s="63">
+        <v>15</v>
+      </c>
+      <c r="K16" s="63">
         <v>5012</v>
       </c>
-      <c r="L16" s="65">
+      <c r="L16" s="62">
         <v>4.1100000000000003</v>
       </c>
-      <c r="M16" s="66">
+      <c r="M16" s="63">
         <v>1478</v>
       </c>
-      <c r="N16" s="65" t="s">
+      <c r="N16" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="O16" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="P16" s="65">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="66">
+      <c r="O16" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="63">
         <v>640</v>
       </c>
-      <c r="R16" s="66">
+      <c r="R16" s="63">
         <v>470</v>
       </c>
     </row>
@@ -2250,7 +2252,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="51">
         <v>170</v>
@@ -2280,7 +2282,7 @@
         <v>12</v>
       </c>
       <c r="K19" s="51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L19" s="50">
         <v>8.9499999999999993</v>
@@ -2586,7 +2588,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B25" s="51">
         <v>60</v>
@@ -2810,7 +2812,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29" s="54">
         <v>11800</v>
@@ -3202,7 +3204,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B36" s="57">
         <v>750</v>
@@ -3370,7 +3372,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B39" s="54">
         <v>550</v>
@@ -3426,7 +3428,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B40" s="54">
         <v>620</v>
@@ -3534,7 +3536,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B42" s="54">
         <v>1270</v>
@@ -3590,7 +3592,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B43" s="57">
         <v>140</v>
@@ -3646,7 +3648,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B44" s="57">
         <v>110</v>
@@ -3702,7 +3704,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B45" s="54">
         <v>170</v>
@@ -3785,7 +3787,7 @@
         <v>18</v>
       </c>
       <c r="J46" s="57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K46" s="57">
         <v>1641</v>
@@ -3814,7 +3816,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B47" s="54">
         <v>260</v>
@@ -3926,7 +3928,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B49" s="57">
         <v>580</v>
@@ -3982,7 +3984,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B50" s="54">
         <v>70</v>
@@ -4150,7 +4152,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B53" s="54">
         <v>1020</v>
@@ -4430,7 +4432,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B58" s="60">
         <v>200</v>
@@ -4594,62 +4596,6 @@
       </c>
       <c r="R60" s="60">
         <v>390</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="B61" s="63">
-        <v>290</v>
-      </c>
-      <c r="C61" s="63">
-        <v>400</v>
-      </c>
-      <c r="D61" s="63">
-        <v>690</v>
-      </c>
-      <c r="E61" s="62">
-        <v>0.3</v>
-      </c>
-      <c r="F61" s="62">
-        <v>0.3</v>
-      </c>
-      <c r="G61" s="62">
-        <v>0.12</v>
-      </c>
-      <c r="H61" s="62">
-        <v>0.09</v>
-      </c>
-      <c r="I61" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="J61" s="63">
-        <v>3</v>
-      </c>
-      <c r="K61" s="63">
-        <v>90</v>
-      </c>
-      <c r="L61" s="62">
-        <v>0.13</v>
-      </c>
-      <c r="M61" s="63">
-        <v>39572</v>
-      </c>
-      <c r="N61" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="O61" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="P61" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="63">
-        <v>360</v>
-      </c>
-      <c r="R61" s="63">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4660,8 +4606,8 @@
     <mergeCell ref="A1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" fitToHeight="0" orientation="landscape" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4744,7 +4690,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="7">
         <v>370</v>
@@ -4800,7 +4746,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B3" s="7">
         <v>170</v>
@@ -5416,7 +5362,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" s="7">
         <v>340</v>
@@ -5585,15 +5531,19 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61A592B-1392-4E24-A57B-AB9B20DB6C13}">
-  <dimension ref="A1:L12"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5601,498 +5551,9 @@
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="48">
-        <v>2000</v>
-      </c>
-      <c r="C1" s="48">
-        <v>10100</v>
-      </c>
-      <c r="D1" s="48">
-        <v>12100</v>
-      </c>
-      <c r="E1" s="47">
-        <v>6.3</v>
-      </c>
-      <c r="F1" s="47">
-        <v>112.8</v>
-      </c>
-      <c r="G1" s="47">
-        <v>0.34</v>
-      </c>
-      <c r="H1" s="47">
-        <v>1.19</v>
-      </c>
-      <c r="I1" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="48">
-        <v>15</v>
-      </c>
-      <c r="K1" s="48">
-        <v>2309</v>
-      </c>
-      <c r="L1" s="47">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="48">
-        <v>130</v>
-      </c>
-      <c r="C2" s="48">
-        <v>1550</v>
-      </c>
-      <c r="D2" s="48">
-        <v>1680</v>
-      </c>
-      <c r="E2" s="47">
-        <v>0.7</v>
-      </c>
-      <c r="F2" s="47">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="G2" s="47">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H2" s="47">
-        <v>2.31</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="48">
-        <v>15</v>
-      </c>
-      <c r="K2" s="48">
-        <v>1172</v>
-      </c>
-      <c r="L2" s="47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="48">
-        <v>330</v>
-      </c>
-      <c r="C3" s="48">
-        <v>2380</v>
-      </c>
-      <c r="D3" s="48">
-        <v>2710</v>
-      </c>
-      <c r="E3" s="47">
-        <v>1.9</v>
-      </c>
-      <c r="F3" s="47">
-        <v>0.7</v>
-      </c>
-      <c r="G3" s="47">
-        <v>0.61</v>
-      </c>
-      <c r="H3" s="47">
-        <v>0.04</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="48">
-        <v>13</v>
-      </c>
-      <c r="K3" s="48">
-        <v>2974</v>
-      </c>
-      <c r="L3" s="47">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="48">
-        <v>360</v>
-      </c>
-      <c r="C4" s="48">
-        <v>2610</v>
-      </c>
-      <c r="D4" s="48">
-        <v>2970</v>
-      </c>
-      <c r="E4" s="47">
-        <v>2.1</v>
-      </c>
-      <c r="F4" s="47">
-        <v>41</v>
-      </c>
-      <c r="G4" s="47">
-        <v>0.59</v>
-      </c>
-      <c r="H4" s="47">
-        <v>1.69</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="48">
-        <v>13</v>
-      </c>
-      <c r="K4" s="48">
-        <v>4406</v>
-      </c>
-      <c r="L4" s="47">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="48">
-        <v>80</v>
-      </c>
-      <c r="C5" s="48">
-        <v>530</v>
-      </c>
-      <c r="D5" s="48">
-        <v>610</v>
-      </c>
-      <c r="E5" s="47">
-        <v>0.7</v>
-      </c>
-      <c r="F5" s="47">
-        <v>14.3</v>
-      </c>
-      <c r="G5" s="47">
-        <v>0.84</v>
-      </c>
-      <c r="H5" s="47">
-        <v>2.94</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="48">
-        <v>14</v>
-      </c>
-      <c r="K5" s="48">
-        <v>1171</v>
-      </c>
-      <c r="L5" s="47">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="48">
-        <v>7520</v>
-      </c>
-      <c r="C6" s="48">
-        <v>46500</v>
-      </c>
-      <c r="D6" s="48">
-        <v>54020</v>
-      </c>
-      <c r="E6" s="47">
-        <v>18</v>
-      </c>
-      <c r="F6" s="47">
-        <v>488.7</v>
-      </c>
-      <c r="G6" s="47">
-        <v>0.26</v>
-      </c>
-      <c r="H6" s="47">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="I6" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="48">
-        <v>15</v>
-      </c>
-      <c r="K6" s="48">
-        <v>111453</v>
-      </c>
-      <c r="L6" s="47">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="48">
-        <v>150</v>
-      </c>
-      <c r="C7" s="48">
-        <v>1090</v>
-      </c>
-      <c r="D7" s="48">
-        <v>1240</v>
-      </c>
-      <c r="E7" s="47">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="47">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G7" s="47">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="47">
-        <v>0.22</v>
-      </c>
-      <c r="I7" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="48">
-        <v>15</v>
-      </c>
-      <c r="K7" s="48">
-        <v>4097</v>
-      </c>
-      <c r="L7" s="47">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="48">
-        <v>320</v>
-      </c>
-      <c r="C8" s="48">
-        <v>930</v>
-      </c>
-      <c r="D8" s="48">
-        <v>1250</v>
-      </c>
-      <c r="E8" s="47">
-        <v>0.7</v>
-      </c>
-      <c r="F8" s="47">
-        <v>2</v>
-      </c>
-      <c r="G8" s="47">
-        <v>0.25</v>
-      </c>
-      <c r="H8" s="47">
-        <v>0.23</v>
-      </c>
-      <c r="I8" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="48">
-        <v>15</v>
-      </c>
-      <c r="K8" s="48">
-        <v>5990</v>
-      </c>
-      <c r="L8" s="47">
-        <v>4.79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="48">
-        <v>1730</v>
-      </c>
-      <c r="C9" s="48">
-        <v>14800</v>
-      </c>
-      <c r="D9" s="48">
-        <v>16530</v>
-      </c>
-      <c r="E9" s="47">
-        <v>10.1</v>
-      </c>
-      <c r="F9" s="47">
-        <v>234</v>
-      </c>
-      <c r="G9" s="47">
-        <v>0.62</v>
-      </c>
-      <c r="H9" s="47">
-        <v>1.69</v>
-      </c>
-      <c r="I9" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="48">
-        <v>15</v>
-      </c>
-      <c r="K9" s="48">
-        <v>124021</v>
-      </c>
-      <c r="L9" s="47">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="48">
-        <v>1140</v>
-      </c>
-      <c r="C10" s="48">
-        <v>2460</v>
-      </c>
-      <c r="D10" s="48">
-        <v>3600</v>
-      </c>
-      <c r="E10" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="F10" s="47">
-        <v>0.3</v>
-      </c>
-      <c r="G10" s="47">
-        <v>0.03</v>
-      </c>
-      <c r="H10" s="47">
-        <v>0.02</v>
-      </c>
-      <c r="I10" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="48">
-        <v>15</v>
-      </c>
-      <c r="K10" s="48">
-        <v>137656</v>
-      </c>
-      <c r="L10" s="47">
-        <v>38.24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="48">
-        <v>480</v>
-      </c>
-      <c r="C11" s="48">
-        <v>1460</v>
-      </c>
-      <c r="D11" s="48">
-        <v>1940</v>
-      </c>
-      <c r="E11" s="47">
-        <v>1.4</v>
-      </c>
-      <c r="F11" s="47">
-        <v>25.3</v>
-      </c>
-      <c r="G11" s="47">
-        <v>0.33</v>
-      </c>
-      <c r="H11" s="47">
-        <v>1.88</v>
-      </c>
-      <c r="I11" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="48">
-        <v>15</v>
-      </c>
-      <c r="K11" s="48">
-        <v>111497</v>
-      </c>
-      <c r="L11" s="47">
-        <v>57.47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="48">
-        <v>130</v>
-      </c>
-      <c r="C12" s="48">
-        <v>510</v>
-      </c>
-      <c r="D12" s="48">
-        <v>640</v>
-      </c>
-      <c r="E12" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="F12" s="47">
-        <v>0</v>
-      </c>
-      <c r="G12" s="47">
-        <v>0.16</v>
-      </c>
-      <c r="H12" s="47">
-        <v>0</v>
-      </c>
-      <c r="I12" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="48">
-        <v>15</v>
-      </c>
-      <c r="K12" s="48">
-        <v>124021</v>
-      </c>
-      <c r="L12" s="47">
-        <v>193.78</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:L12">
-    <sortCondition ref="L1:L12"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723B8AA2-A1C0-4C99-8441-19FC461CBE7F}">
-  <dimension ref="A1:R11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -6112,6 +5573,1823 @@
       <c r="Q1" s="68"/>
       <c r="R1" s="68"/>
     </row>
+    <row r="2" spans="1:18" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="51">
+        <v>60</v>
+      </c>
+      <c r="C3" s="51">
+        <v>690</v>
+      </c>
+      <c r="D3" s="51">
+        <v>750</v>
+      </c>
+      <c r="E3" s="50">
+        <v>0</v>
+      </c>
+      <c r="F3" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="50">
+        <v>0</v>
+      </c>
+      <c r="H3" s="50">
+        <v>0.06</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="51">
+        <v>3</v>
+      </c>
+      <c r="K3" s="51">
+        <v>48</v>
+      </c>
+      <c r="L3" s="50">
+        <v>0.06</v>
+      </c>
+      <c r="M3" s="51">
+        <v>28680</v>
+      </c>
+      <c r="N3" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="51">
+        <v>100</v>
+      </c>
+      <c r="R3" s="51">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="48">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="48">
+        <v>10100</v>
+      </c>
+      <c r="D4" s="48">
+        <v>12100</v>
+      </c>
+      <c r="E4" s="47">
+        <v>6.3</v>
+      </c>
+      <c r="F4" s="47">
+        <v>112.8</v>
+      </c>
+      <c r="G4" s="47">
+        <v>0.34</v>
+      </c>
+      <c r="H4" s="47">
+        <v>1.19</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="48">
+        <v>15</v>
+      </c>
+      <c r="K4" s="48">
+        <v>2309</v>
+      </c>
+      <c r="L4" s="47">
+        <v>0.19</v>
+      </c>
+      <c r="M4" s="48">
+        <v>9765</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="47">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="48">
+        <v>520</v>
+      </c>
+      <c r="R4" s="48">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="48">
+        <v>130</v>
+      </c>
+      <c r="C5" s="48">
+        <v>1550</v>
+      </c>
+      <c r="D5" s="48">
+        <v>1680</v>
+      </c>
+      <c r="E5" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="F5" s="47">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G5" s="47">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H5" s="47">
+        <v>2.31</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="48">
+        <v>15</v>
+      </c>
+      <c r="K5" s="48">
+        <v>1172</v>
+      </c>
+      <c r="L5" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="M5" s="48">
+        <v>48178</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="48">
+        <v>1500</v>
+      </c>
+      <c r="R5" s="48">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="48">
+        <v>330</v>
+      </c>
+      <c r="C6" s="48">
+        <v>2380</v>
+      </c>
+      <c r="D6" s="48">
+        <v>2710</v>
+      </c>
+      <c r="E6" s="47">
+        <v>1.9</v>
+      </c>
+      <c r="F6" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="G6" s="47">
+        <v>0.61</v>
+      </c>
+      <c r="H6" s="47">
+        <v>0.04</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="48">
+        <v>13</v>
+      </c>
+      <c r="K6" s="48">
+        <v>2974</v>
+      </c>
+      <c r="L6" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M6" s="48">
+        <v>6864</v>
+      </c>
+      <c r="N6" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="48">
+        <v>1580</v>
+      </c>
+      <c r="R6" s="48">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="48">
+        <v>360</v>
+      </c>
+      <c r="C7" s="48">
+        <v>2610</v>
+      </c>
+      <c r="D7" s="48">
+        <v>2970</v>
+      </c>
+      <c r="E7" s="47">
+        <v>2.1</v>
+      </c>
+      <c r="F7" s="47">
+        <v>41</v>
+      </c>
+      <c r="G7" s="47">
+        <v>0.59</v>
+      </c>
+      <c r="H7" s="47">
+        <v>1.69</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="48">
+        <v>13</v>
+      </c>
+      <c r="K7" s="48">
+        <v>4406</v>
+      </c>
+      <c r="L7" s="47">
+        <v>1.48</v>
+      </c>
+      <c r="M7" s="48">
+        <v>8283</v>
+      </c>
+      <c r="N7" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="48">
+        <v>1670</v>
+      </c>
+      <c r="R7" s="48">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="48">
+        <v>80</v>
+      </c>
+      <c r="C8" s="48">
+        <v>530</v>
+      </c>
+      <c r="D8" s="48">
+        <v>610</v>
+      </c>
+      <c r="E8" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="47">
+        <v>14.3</v>
+      </c>
+      <c r="G8" s="47">
+        <v>0.84</v>
+      </c>
+      <c r="H8" s="47">
+        <v>2.94</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="48">
+        <v>14</v>
+      </c>
+      <c r="K8" s="48">
+        <v>1171</v>
+      </c>
+      <c r="L8" s="47">
+        <v>1.92</v>
+      </c>
+      <c r="M8" s="48">
+        <v>10723</v>
+      </c>
+      <c r="N8" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="48">
+        <v>1160</v>
+      </c>
+      <c r="R8" s="48">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="48">
+        <v>7520</v>
+      </c>
+      <c r="C9" s="48">
+        <v>46500</v>
+      </c>
+      <c r="D9" s="48">
+        <v>54020</v>
+      </c>
+      <c r="E9" s="47">
+        <v>18</v>
+      </c>
+      <c r="F9" s="47">
+        <v>488.7</v>
+      </c>
+      <c r="G9" s="47">
+        <v>0.26</v>
+      </c>
+      <c r="H9" s="47">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="48">
+        <v>15</v>
+      </c>
+      <c r="K9" s="48">
+        <v>111453</v>
+      </c>
+      <c r="L9" s="47">
+        <v>2.06</v>
+      </c>
+      <c r="M9" s="48">
+        <v>70577</v>
+      </c>
+      <c r="N9" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="48">
+        <v>5390</v>
+      </c>
+      <c r="R9" s="48">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="48">
+        <v>150</v>
+      </c>
+      <c r="C10" s="48">
+        <v>1090</v>
+      </c>
+      <c r="D10" s="48">
+        <v>1240</v>
+      </c>
+      <c r="E10" s="47">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="47">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G10" s="47">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="47">
+        <v>0.22</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="48">
+        <v>15</v>
+      </c>
+      <c r="K10" s="48">
+        <v>4097</v>
+      </c>
+      <c r="L10" s="47">
+        <v>3.3</v>
+      </c>
+      <c r="M10" s="48">
+        <v>42077</v>
+      </c>
+      <c r="N10" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="47">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="48">
+        <v>520</v>
+      </c>
+      <c r="R10" s="48">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="63">
+        <v>200</v>
+      </c>
+      <c r="C12" s="63">
+        <v>1040</v>
+      </c>
+      <c r="D12" s="63">
+        <v>1240</v>
+      </c>
+      <c r="E12" s="62">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="62">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H12" s="62">
+        <v>0.06</v>
+      </c>
+      <c r="I12" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="63">
+        <v>15</v>
+      </c>
+      <c r="K12" s="63">
+        <v>5012</v>
+      </c>
+      <c r="L12" s="62">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="M12" s="63">
+        <v>1478</v>
+      </c>
+      <c r="N12" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="63">
+        <v>640</v>
+      </c>
+      <c r="R12" s="63">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="51">
+        <v>330</v>
+      </c>
+      <c r="C13" s="51">
+        <v>2930</v>
+      </c>
+      <c r="D13" s="51">
+        <v>3260</v>
+      </c>
+      <c r="E13" s="50">
+        <v>2.9</v>
+      </c>
+      <c r="F13" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="50">
+        <v>0.94</v>
+      </c>
+      <c r="H13" s="50">
+        <v>0.03</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="51">
+        <v>7</v>
+      </c>
+      <c r="K13" s="51">
+        <v>14651</v>
+      </c>
+      <c r="L13" s="50">
+        <v>4.49</v>
+      </c>
+      <c r="M13" s="51">
+        <v>2862</v>
+      </c>
+      <c r="N13" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="50">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="51">
+        <v>460</v>
+      </c>
+      <c r="R13" s="51">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="48">
+        <v>320</v>
+      </c>
+      <c r="C14" s="48">
+        <v>930</v>
+      </c>
+      <c r="D14" s="48">
+        <v>1250</v>
+      </c>
+      <c r="E14" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="47">
+        <v>2</v>
+      </c>
+      <c r="G14" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="H14" s="47">
+        <v>0.23</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="48">
+        <v>15</v>
+      </c>
+      <c r="K14" s="48">
+        <v>5990</v>
+      </c>
+      <c r="L14" s="47">
+        <v>4.79</v>
+      </c>
+      <c r="M14" s="48">
+        <v>8491</v>
+      </c>
+      <c r="N14" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="48">
+        <v>1360</v>
+      </c>
+      <c r="R14" s="48">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="48">
+        <v>1730</v>
+      </c>
+      <c r="C15" s="48">
+        <v>14800</v>
+      </c>
+      <c r="D15" s="48">
+        <v>16530</v>
+      </c>
+      <c r="E15" s="47">
+        <v>10.1</v>
+      </c>
+      <c r="F15" s="47">
+        <v>234</v>
+      </c>
+      <c r="G15" s="47">
+        <v>0.62</v>
+      </c>
+      <c r="H15" s="47">
+        <v>1.69</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="48">
+        <v>15</v>
+      </c>
+      <c r="K15" s="48">
+        <v>124021</v>
+      </c>
+      <c r="L15" s="47">
+        <v>7.5</v>
+      </c>
+      <c r="M15" s="48">
+        <v>23438</v>
+      </c>
+      <c r="N15" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="48">
+        <v>3150</v>
+      </c>
+      <c r="R15" s="48">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="51">
+        <v>170</v>
+      </c>
+      <c r="C16" s="51">
+        <v>690</v>
+      </c>
+      <c r="D16" s="51">
+        <v>860</v>
+      </c>
+      <c r="E16" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="50">
+        <v>0</v>
+      </c>
+      <c r="G16" s="50">
+        <v>0.31</v>
+      </c>
+      <c r="H16" s="50">
+        <v>0</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="51">
+        <v>12</v>
+      </c>
+      <c r="K16" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="L16" s="50">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="M16" s="51">
+        <v>6560</v>
+      </c>
+      <c r="N16" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="51">
+        <v>850</v>
+      </c>
+      <c r="R16" s="51">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="51">
+        <v>60</v>
+      </c>
+      <c r="C17" s="51">
+        <v>450</v>
+      </c>
+      <c r="D17" s="51">
+        <v>510</v>
+      </c>
+      <c r="E17" s="50">
+        <v>0.4</v>
+      </c>
+      <c r="F17" s="50">
+        <v>7.8</v>
+      </c>
+      <c r="G17" s="50">
+        <v>0.73</v>
+      </c>
+      <c r="H17" s="50">
+        <v>1.96</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="51">
+        <v>15</v>
+      </c>
+      <c r="K17" s="51">
+        <v>6190</v>
+      </c>
+      <c r="L17" s="50">
+        <v>12.14</v>
+      </c>
+      <c r="M17" s="51">
+        <v>32384</v>
+      </c>
+      <c r="N17" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="51">
+        <v>1440</v>
+      </c>
+      <c r="R17" s="51">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="51">
+        <v>70</v>
+      </c>
+      <c r="C18" s="51">
+        <v>390</v>
+      </c>
+      <c r="D18" s="51">
+        <v>460</v>
+      </c>
+      <c r="E18" s="50">
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="50">
+        <v>1.8</v>
+      </c>
+      <c r="G18" s="50">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H18" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="51">
+        <v>13</v>
+      </c>
+      <c r="K18" s="51">
+        <v>7138</v>
+      </c>
+      <c r="L18" s="50">
+        <v>15.52</v>
+      </c>
+      <c r="M18" s="51">
+        <v>17144</v>
+      </c>
+      <c r="N18" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="51">
+        <v>490</v>
+      </c>
+      <c r="R18" s="51">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="51">
+        <v>130</v>
+      </c>
+      <c r="C19" s="51">
+        <v>1050</v>
+      </c>
+      <c r="D19" s="51">
+        <v>1180</v>
+      </c>
+      <c r="E19" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="50">
+        <v>13.8</v>
+      </c>
+      <c r="G19" s="50">
+        <v>0.12</v>
+      </c>
+      <c r="H19" s="50">
+        <v>1.44</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="51">
+        <v>15</v>
+      </c>
+      <c r="K19" s="51">
+        <v>37690</v>
+      </c>
+      <c r="L19" s="50">
+        <v>31.94</v>
+      </c>
+      <c r="M19" s="51">
+        <v>11588</v>
+      </c>
+      <c r="N19" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="51">
+        <v>1790</v>
+      </c>
+      <c r="R19" s="51">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="51">
+        <v>390</v>
+      </c>
+      <c r="C20" s="51">
+        <v>3020</v>
+      </c>
+      <c r="D20" s="51">
+        <v>3410</v>
+      </c>
+      <c r="E20" s="50">
+        <v>1.7</v>
+      </c>
+      <c r="F20" s="50">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G20" s="50">
+        <v>0.46</v>
+      </c>
+      <c r="H20" s="50">
+        <v>1.33</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="51">
+        <v>15</v>
+      </c>
+      <c r="K20" s="51">
+        <v>111449</v>
+      </c>
+      <c r="L20" s="50">
+        <v>32.68</v>
+      </c>
+      <c r="M20" s="51">
+        <v>12717</v>
+      </c>
+      <c r="N20" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" s="50">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="51">
+        <v>1710</v>
+      </c>
+      <c r="R20" s="51">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="48">
+        <v>1140</v>
+      </c>
+      <c r="C21" s="48">
+        <v>2460</v>
+      </c>
+      <c r="D21" s="48">
+        <v>3600</v>
+      </c>
+      <c r="E21" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="F21" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="H21" s="47">
+        <v>0.02</v>
+      </c>
+      <c r="I21" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="48">
+        <v>15</v>
+      </c>
+      <c r="K21" s="48">
+        <v>137656</v>
+      </c>
+      <c r="L21" s="47">
+        <v>38.24</v>
+      </c>
+      <c r="M21" s="48">
+        <v>187844</v>
+      </c>
+      <c r="N21" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="48">
+        <v>1280</v>
+      </c>
+      <c r="R21" s="48">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="51">
+        <v>100</v>
+      </c>
+      <c r="C22" s="51">
+        <v>790</v>
+      </c>
+      <c r="D22" s="51">
+        <v>890</v>
+      </c>
+      <c r="E22" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="F22" s="50">
+        <v>15.8</v>
+      </c>
+      <c r="G22" s="50">
+        <v>0.82</v>
+      </c>
+      <c r="H22" s="50">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="51">
+        <v>15</v>
+      </c>
+      <c r="K22" s="51">
+        <v>37860</v>
+      </c>
+      <c r="L22" s="50">
+        <v>42.54</v>
+      </c>
+      <c r="M22" s="51">
+        <v>12147</v>
+      </c>
+      <c r="N22" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="O22" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="51">
+        <v>1490</v>
+      </c>
+      <c r="R22" s="51">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="51">
+        <v>60</v>
+      </c>
+      <c r="C23" s="51">
+        <v>460</v>
+      </c>
+      <c r="D23" s="51">
+        <v>520</v>
+      </c>
+      <c r="E23" s="50">
+        <v>0</v>
+      </c>
+      <c r="F23" s="50">
+        <v>0</v>
+      </c>
+      <c r="G23" s="50">
+        <v>0</v>
+      </c>
+      <c r="H23" s="50">
+        <v>0</v>
+      </c>
+      <c r="I23" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="51">
+        <v>3</v>
+      </c>
+      <c r="K23" s="51">
+        <v>24879</v>
+      </c>
+      <c r="L23" s="50">
+        <v>47.84</v>
+      </c>
+      <c r="M23" s="51">
+        <v>17665</v>
+      </c>
+      <c r="N23" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="O23" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="50">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="51">
+        <v>840</v>
+      </c>
+      <c r="R23" s="51">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="51">
+        <v>150</v>
+      </c>
+      <c r="C24" s="51">
+        <v>1180</v>
+      </c>
+      <c r="D24" s="51">
+        <v>1330</v>
+      </c>
+      <c r="E24" s="50">
+        <v>0.7</v>
+      </c>
+      <c r="F24" s="50">
+        <v>22.8</v>
+      </c>
+      <c r="G24" s="50">
+        <v>0.45</v>
+      </c>
+      <c r="H24" s="50">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I24" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="51">
+        <v>15</v>
+      </c>
+      <c r="K24" s="51">
+        <v>66565</v>
+      </c>
+      <c r="L24" s="50">
+        <v>50.05</v>
+      </c>
+      <c r="M24" s="51">
+        <v>20127</v>
+      </c>
+      <c r="N24" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="51">
+        <v>1530</v>
+      </c>
+      <c r="R24" s="51">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="48">
+        <v>480</v>
+      </c>
+      <c r="C25" s="48">
+        <v>1460</v>
+      </c>
+      <c r="D25" s="48">
+        <v>1940</v>
+      </c>
+      <c r="E25" s="47">
+        <v>1.4</v>
+      </c>
+      <c r="F25" s="47">
+        <v>25.3</v>
+      </c>
+      <c r="G25" s="47">
+        <v>0.33</v>
+      </c>
+      <c r="H25" s="47">
+        <v>1.88</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="48">
+        <v>15</v>
+      </c>
+      <c r="K25" s="48">
+        <v>111497</v>
+      </c>
+      <c r="L25" s="47">
+        <v>57.47</v>
+      </c>
+      <c r="M25" s="48">
+        <v>26190</v>
+      </c>
+      <c r="N25" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="O25" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="48">
+        <v>2580</v>
+      </c>
+      <c r="R25" s="48">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="60">
+        <v>260</v>
+      </c>
+      <c r="C26" s="60">
+        <v>1060</v>
+      </c>
+      <c r="D26" s="60">
+        <v>1320</v>
+      </c>
+      <c r="E26" s="59">
+        <v>0.4</v>
+      </c>
+      <c r="F26" s="59">
+        <v>0.7</v>
+      </c>
+      <c r="G26" s="59">
+        <v>0.17</v>
+      </c>
+      <c r="H26" s="59">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I26" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="60">
+        <v>15</v>
+      </c>
+      <c r="K26" s="60">
+        <v>105588</v>
+      </c>
+      <c r="L26" s="59">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="M26" s="60">
+        <v>17743</v>
+      </c>
+      <c r="N26" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="O26" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="P26" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="60">
+        <v>1020</v>
+      </c>
+      <c r="R26" s="60">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="51">
+        <v>1240</v>
+      </c>
+      <c r="C27" s="51">
+        <v>3970</v>
+      </c>
+      <c r="D27" s="51">
+        <v>5210</v>
+      </c>
+      <c r="E27" s="50">
+        <v>7.1</v>
+      </c>
+      <c r="F27" s="50">
+        <v>40.5</v>
+      </c>
+      <c r="G27" s="50">
+        <v>0.61</v>
+      </c>
+      <c r="H27" s="50">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I27" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="51">
+        <v>15</v>
+      </c>
+      <c r="K27" s="51">
+        <v>514091</v>
+      </c>
+      <c r="L27" s="50">
+        <v>98.67</v>
+      </c>
+      <c r="M27" s="51">
+        <v>5743</v>
+      </c>
+      <c r="N27" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="51">
+        <v>4430</v>
+      </c>
+      <c r="R27" s="51">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="60">
+        <v>150</v>
+      </c>
+      <c r="C28" s="60">
+        <v>610</v>
+      </c>
+      <c r="D28" s="60">
+        <v>760</v>
+      </c>
+      <c r="E28" s="59">
+        <v>0.3</v>
+      </c>
+      <c r="F28" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="59">
+        <v>0.19</v>
+      </c>
+      <c r="H28" s="59">
+        <v>0.09</v>
+      </c>
+      <c r="I28" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="60">
+        <v>15</v>
+      </c>
+      <c r="K28" s="60">
+        <v>105588</v>
+      </c>
+      <c r="L28" s="59">
+        <v>138.93</v>
+      </c>
+      <c r="M28" s="60">
+        <v>15974</v>
+      </c>
+      <c r="N28" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="60">
+        <v>1820</v>
+      </c>
+      <c r="R28" s="60">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="60">
+        <v>140</v>
+      </c>
+      <c r="C29" s="60">
+        <v>700</v>
+      </c>
+      <c r="D29" s="60">
+        <v>840</v>
+      </c>
+      <c r="E29" s="59">
+        <v>0.4</v>
+      </c>
+      <c r="F29" s="59">
+        <v>8.5</v>
+      </c>
+      <c r="G29" s="59">
+        <v>0.32</v>
+      </c>
+      <c r="H29" s="59">
+        <v>1.29</v>
+      </c>
+      <c r="I29" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="60">
+        <v>15</v>
+      </c>
+      <c r="K29" s="60">
+        <v>135379</v>
+      </c>
+      <c r="L29" s="59">
+        <v>161.16999999999999</v>
+      </c>
+      <c r="M29" s="60">
+        <v>2259</v>
+      </c>
+      <c r="N29" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="O29" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="60">
+        <v>3210</v>
+      </c>
+      <c r="R29" s="60">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="60">
+        <v>220</v>
+      </c>
+      <c r="C30" s="60">
+        <v>540</v>
+      </c>
+      <c r="D30" s="60">
+        <v>760</v>
+      </c>
+      <c r="E30" s="59">
+        <v>0.7</v>
+      </c>
+      <c r="F30" s="59">
+        <v>1.5</v>
+      </c>
+      <c r="G30" s="59">
+        <v>0.32</v>
+      </c>
+      <c r="H30" s="59">
+        <v>0.3</v>
+      </c>
+      <c r="I30" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="60">
+        <v>15</v>
+      </c>
+      <c r="K30" s="60">
+        <v>129073</v>
+      </c>
+      <c r="L30" s="59">
+        <v>169.83</v>
+      </c>
+      <c r="M30" s="60">
+        <v>87900</v>
+      </c>
+      <c r="N30" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="O30" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="P30" s="59">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="60">
+        <v>840</v>
+      </c>
+      <c r="R30" s="60">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="48">
+        <v>130</v>
+      </c>
+      <c r="C31" s="48">
+        <v>510</v>
+      </c>
+      <c r="D31" s="48">
+        <v>640</v>
+      </c>
+      <c r="E31" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="F31" s="47">
+        <v>0</v>
+      </c>
+      <c r="G31" s="47">
+        <v>0.16</v>
+      </c>
+      <c r="H31" s="47">
+        <v>0</v>
+      </c>
+      <c r="I31" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="48">
+        <v>15</v>
+      </c>
+      <c r="K31" s="48">
+        <v>124021</v>
+      </c>
+      <c r="L31" s="47">
+        <v>193.78</v>
+      </c>
+      <c r="M31" s="48">
+        <v>16610</v>
+      </c>
+      <c r="N31" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="O31" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="48">
+        <v>1930</v>
+      </c>
+      <c r="R31" s="48">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="60">
+        <v>500</v>
+      </c>
+      <c r="C32" s="60">
+        <v>1710</v>
+      </c>
+      <c r="D32" s="60">
+        <v>2210</v>
+      </c>
+      <c r="E32" s="59">
+        <v>3.6</v>
+      </c>
+      <c r="F32" s="59">
+        <v>22</v>
+      </c>
+      <c r="G32" s="59">
+        <v>0.77</v>
+      </c>
+      <c r="H32" s="59">
+        <v>1.4</v>
+      </c>
+      <c r="I32" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="60">
+        <v>15</v>
+      </c>
+      <c r="K32" s="60">
+        <v>514091</v>
+      </c>
+      <c r="L32" s="59">
+        <v>232.62</v>
+      </c>
+      <c r="M32" s="60">
+        <v>32939</v>
+      </c>
+      <c r="N32" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="O32" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="P32" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="60">
+        <v>4050</v>
+      </c>
+      <c r="R32" s="60">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="60">
+        <v>200</v>
+      </c>
+      <c r="C33" s="60">
+        <v>640</v>
+      </c>
+      <c r="D33" s="60">
+        <v>840</v>
+      </c>
+      <c r="E33" s="59">
+        <v>1</v>
+      </c>
+      <c r="F33" s="59">
+        <v>6</v>
+      </c>
+      <c r="G33" s="59">
+        <v>0.51</v>
+      </c>
+      <c r="H33" s="59">
+        <v>0.98</v>
+      </c>
+      <c r="I33" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="60">
+        <v>15</v>
+      </c>
+      <c r="K33" s="60">
+        <v>249051</v>
+      </c>
+      <c r="L33" s="59">
+        <v>296.49</v>
+      </c>
+      <c r="M33" s="60">
+        <v>105865</v>
+      </c>
+      <c r="N33" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="O33" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="P33" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="60">
+        <v>1600</v>
+      </c>
+      <c r="R33" s="60">
+        <v>860</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:R33">
+    <sortCondition ref="L3:L33"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:R1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723B8AA2-A1C0-4C99-8441-19FC461CBE7F}">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O1:O1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.5703125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+    </row>
     <row r="2" spans="1:18" s="45" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
         <v>0</v>
@@ -6338,7 +7616,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" s="13">
         <v>100</v>
@@ -6681,7 +7959,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="256" orientation="landscape" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6711,7 +7989,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
@@ -7293,7 +8571,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B12" s="17">
         <v>70</v>
@@ -7349,7 +8627,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B13" s="20">
         <v>980</v>
@@ -7405,7 +8683,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B14" s="20">
         <v>480</v>
@@ -7461,7 +8739,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15" s="20">
         <v>380</v>
@@ -7517,7 +8795,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" s="20">
         <v>160</v>
@@ -7573,7 +8851,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" s="20">
         <v>80</v>
@@ -7629,7 +8907,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18" s="20">
         <v>120</v>
@@ -7685,7 +8963,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B19" s="20">
         <v>70</v>
@@ -7741,7 +9019,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" s="20">
         <v>140</v>
@@ -7853,7 +9131,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" s="20">
         <v>60</v>
@@ -7944,7 +9222,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -8470,7 +9748,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" s="17">
         <v>340</v>
@@ -8638,7 +9916,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" s="32">
         <v>970</v>
@@ -9288,7 +10566,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" s="7">
         <v>270</v>
@@ -9568,7 +10846,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="7">
         <v>740</v>
@@ -9624,7 +10902,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" s="7">
         <v>400</v>
@@ -9736,7 +11014,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B15" s="7">
         <v>40</v>
@@ -9880,7 +11158,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="7">
         <v>80</v>
@@ -10104,7 +11382,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="7">
         <v>210</v>
@@ -10160,7 +11438,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B7" s="7">
         <v>570</v>
@@ -10496,7 +11774,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="7">
         <v>420</v>
@@ -10665,6 +11943,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10803,7 +12082,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="7">
         <v>220</v>
@@ -10859,7 +12138,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="7">
         <v>80</v>
@@ -11084,6 +12363,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11222,7 +12502,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="7">
         <v>210</v>
@@ -11278,7 +12558,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="7">
         <v>670</v>
@@ -11614,7 +12894,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="7">
         <v>1550</v>
@@ -11671,5 +12951,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>